--- a/public/script/erd.xlsx
+++ b/public/script/erd.xlsx
@@ -13,13 +13,15 @@
     <sheet name="GroupHeaders" sheetId="2" r:id="rId4"/>
     <sheet name="GroupDetails" sheetId="3" r:id="rId5"/>
     <sheet name="Lotteries" sheetId="6" r:id="rId6"/>
+    <sheet name="contactInformationType" sheetId="7" r:id="rId7"/>
+    <sheet name="userContactInformation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +32,6 @@
     <t>groupID</t>
   </si>
   <si>
-    <t>PapaBear</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -54,18 +53,12 @@
     <t>SponsorID</t>
   </si>
   <si>
-    <t>Jazz</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>VERNON MAXWELL</t>
   </si>
   <si>
-    <t>RUBY</t>
-  </si>
-  <si>
     <t>ROSZENE NICOLE</t>
   </si>
   <si>
@@ -226,6 +219,18 @@
   </si>
   <si>
     <t>ESPANYOL</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>MOBILE NUMBER</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>RUBY JOCELYN</t>
   </si>
 </sst>
 </file>
@@ -266,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,19 +303,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -375,19 +367,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -683,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,20 +688,19 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1">
         <v>1</v>
       </c>
@@ -722,43 +711,40 @@
         <v>43047.323263888888</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="18">
+        <v>26</v>
+      </c>
+      <c r="G1" s="17">
         <v>34549</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="str">
+      <c r="I1" s="16" t="str">
         <f>LEFT(F1,4)&amp;LEFT(D1,2)&amp;MONTH(G1)</f>
         <v>DELMVE8</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>5</v>
+      <c r="J1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4">
+        <v>123456</v>
       </c>
       <c r="L1" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M1" s="4">
-        <v>1</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>2</v>
       </c>
@@ -769,37 +755,36 @@
         <v>43048.323263831022</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="18">
+        <v>26</v>
+      </c>
+      <c r="G2" s="17">
         <v>20776</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="17" t="str">
-        <f t="shared" ref="J2:J37" si="0">LEFT(F2,4)&amp;LEFT(D2,2)&amp;MONTH(G2)</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="16" t="str">
+        <f t="shared" ref="I2:I37" si="0">LEFT(F2,4)&amp;LEFT(D2,2)&amp;MONTH(G2)</f>
         <v>DELMRU11</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="4">
+        <v>123456</v>
+      </c>
       <c r="L2" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>3</v>
       </c>
@@ -810,37 +795,36 @@
         <v>43049.323263831022</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="18">
+        <v>26</v>
+      </c>
+      <c r="G3" s="17">
         <v>34153</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DELMRO7</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="4">
+        <v>123456</v>
+      </c>
       <c r="L3" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>4</v>
       </c>
@@ -851,37 +835,36 @@
         <v>43050.323263831022</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="18">
+        <v>26</v>
+      </c>
+      <c r="G4" s="17">
         <v>19758</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DELMLE2</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="4">
+        <v>123456</v>
+      </c>
       <c r="L4" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>5</v>
       </c>
@@ -892,35 +875,34 @@
         <v>43051.323263831022</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DELMDA1</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="4">
+        <v>123456</v>
+      </c>
       <c r="L5" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>6</v>
       </c>
@@ -931,35 +913,34 @@
         <v>43052.323263831022</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DELMDA1</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="4">
+        <v>123456</v>
+      </c>
       <c r="L6" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>7</v>
       </c>
@@ -970,35 +951,34 @@
         <v>43053.323263831022</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAMA1</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="4">
+        <v>123456</v>
+      </c>
       <c r="L7" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1009,37 +989,34 @@
         <v>43054.323263831022</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUABR1</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="4">
+        <v>123456</v>
+      </c>
       <c r="L8" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1050,35 +1027,34 @@
         <v>43055.323263831022</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAAN1</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="4">
+        <v>123456</v>
+      </c>
       <c r="L9" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1089,33 +1065,32 @@
         <v>43056.323263831022</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUATO1</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="4">
+        <v>123456</v>
+      </c>
       <c r="L10" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1126,35 +1101,34 @@
         <v>43057.323263831022</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAMA1</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="4">
+        <v>123456</v>
+      </c>
       <c r="L11" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1165,35 +1139,34 @@
         <v>43058.323263831022</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAMA1</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="4">
+        <v>123456</v>
+      </c>
       <c r="L12" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1204,35 +1177,34 @@
         <v>43059.323263831022</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAZI1</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="4">
+        <v>123456</v>
+      </c>
       <c r="L13" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1243,35 +1215,34 @@
         <v>43060.323263831022</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DELMGE1</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="4">
+        <v>123456</v>
+      </c>
       <c r="L14" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1282,35 +1253,34 @@
         <v>43061.323263831022</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAVI1</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="4">
+        <v>123456</v>
+      </c>
       <c r="L15" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1321,35 +1291,34 @@
         <v>43062.323263831022</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>AGUAFA1</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="4">
+        <v>123456</v>
+      </c>
       <c r="L16" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1360,35 +1329,34 @@
         <v>43063.323263831022</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ANGECA1</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="4">
+        <v>123456</v>
+      </c>
       <c r="L17" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1399,35 +1367,34 @@
         <v>43064.323263831022</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ANGEKE1</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="4">
+        <v>123456</v>
+      </c>
       <c r="L18" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1438,35 +1405,34 @@
         <v>43065.323263831022</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ANGECA1</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="4">
+        <v>123456</v>
+      </c>
       <c r="L19" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1477,35 +1443,34 @@
         <v>43066.323263831022</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ANGELI1</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="4">
+        <v>123456</v>
+      </c>
       <c r="L20" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1516,35 +1481,34 @@
         <v>43067.323263831022</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="G21" s="17"/>
       <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ANGEDE1</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="4">
+        <v>123456</v>
+      </c>
       <c r="L21" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1555,35 +1519,34 @@
         <v>43068.323263831022</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANTAN1</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="4">
+        <v>123456</v>
+      </c>
       <c r="L22" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1594,35 +1557,34 @@
         <v>43069.323263831022</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="G23" s="17"/>
       <c r="H23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANTCO1</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="4">
+        <v>123456</v>
+      </c>
       <c r="L23" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1633,35 +1595,34 @@
         <v>43070.323263831022</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANTIS1</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="4">
+        <v>123456</v>
+      </c>
       <c r="L24" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1672,33 +1633,32 @@
         <v>43071.323263831022</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>MAGLAL1</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="4">
+        <v>123456</v>
+      </c>
       <c r="L25" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1709,35 +1669,34 @@
         <v>43072.323263831022</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>MAGLNE1</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="4">
+        <v>123456</v>
+      </c>
       <c r="L26" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M26" s="4">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1748,35 +1707,34 @@
         <v>43073.323263831022</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>MAGLAL1</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="4">
+        <v>123456</v>
+      </c>
       <c r="L27" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M27" s="4">
-        <v>1</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1787,35 +1745,34 @@
         <v>43074.323263831022</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="G28" s="17"/>
       <c r="H28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>MAGLAL1</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="4">
+        <v>123456</v>
+      </c>
       <c r="L28" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M28" s="4">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1826,33 +1783,32 @@
         <v>43075.323263831022</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCJA1</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="4">
+        <v>123456</v>
+      </c>
       <c r="L29" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M29" s="4">
-        <v>1</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1865,29 +1821,28 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G30" s="17"/>
       <c r="H30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANC1</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="4">
+        <v>123456</v>
+      </c>
       <c r="L30" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M30" s="4">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1898,33 +1853,32 @@
         <v>43077.323263831022</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G31" s="17"/>
       <c r="H31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCCA1</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="4">
+        <v>123456</v>
+      </c>
       <c r="L31" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M31" s="4">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1937,29 +1891,28 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G32" s="17"/>
       <c r="H32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANC1</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="4">
+        <v>123456</v>
+      </c>
       <c r="L32" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1970,33 +1923,32 @@
         <v>43079.323263831022</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G33" s="17"/>
       <c r="H33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCNE1</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="4">
+        <v>123456</v>
+      </c>
       <c r="L33" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M33" s="4">
-        <v>1</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2007,33 +1959,32 @@
         <v>43080.323263831022</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCJE1</v>
       </c>
-      <c r="K34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="4">
+        <v>123456</v>
+      </c>
       <c r="L34" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M34" s="4">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2044,33 +1995,32 @@
         <v>43081.323263831022</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G35" s="17"/>
       <c r="H35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCJA1</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="4">
+        <v>123456</v>
+      </c>
       <c r="L35" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M35" s="4">
-        <v>1</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2081,33 +2031,32 @@
         <v>43082.323263831022</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCNI1</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="4">
+        <v>123456</v>
+      </c>
       <c r="L36" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M36" s="4">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2118,35 +2067,34 @@
         <v>43083.323263831022</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G37" s="17"/>
       <c r="H37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SANCKA1</v>
       </c>
-      <c r="K37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="4">
+        <v>123456</v>
+      </c>
       <c r="L37" s="4">
-        <v>123456</v>
-      </c>
-      <c r="M37" s="4">
-        <v>1</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K1" r:id="rId1"/>
+    <hyperlink ref="J1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2185,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4">
         <v>1</v>
@@ -2208,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -2298,10 +2246,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4">
         <v>1</v>
@@ -2321,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -2344,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -2367,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -2390,10 +2338,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2413,10 +2361,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -2436,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -2459,10 +2407,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
@@ -2482,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
@@ -2505,10 +2453,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
@@ -3301,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3341,4 +3289,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+      <c r="G1">
+        <v>12</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2017</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>9177036706</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>